--- a/docs/YYMMDD_A042_Protokoll_PF.xlsx
+++ b/docs/YYMMDD_A042_Protokoll_PF.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="A042_Protocol" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="Min" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="A042_Protocol Version 1" sheetId="1" r:id="rId1"/>
+    <sheet name="A042_Protocol_Version 2" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Min" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -252,6 +253,226 @@
     <author>fleischp</author>
   </authors>
   <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1..10
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=MotionTask
+1=Receiver
+2=Sender
+10=Master
+20…for User
+**************************************************
+- Max können 20 Task auf einem Kontroller arbeiten!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Feedback Instruction is always "Reply"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=No Feedback
+1=Feedback
+20…for User
+**************************************************
+- Max können 20 Task auf einem Kontroller arbeiten!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Done
+Done FError "Feedback Level"  (Unsupportet Feedback Level)
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sendet die Sequenz ID des Befehls zurück 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Min 0
+Max 5</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Min 0
+Max 30</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>fleischp</author>
+  </authors>
+  <commentList>
     <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
@@ -315,7 +536,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>fleischp</author>
@@ -536,7 +757,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="180">
   <si>
     <t xml:space="preserve">Header </t>
   </si>
@@ -1013,6 +1234,69 @@
   </si>
   <si>
     <t>r_A042_MoveL</t>
+  </si>
+  <si>
+    <t>St6</t>
+  </si>
+  <si>
+    <t>St7</t>
+  </si>
+  <si>
+    <t>St8</t>
+  </si>
+  <si>
+    <t>St6_Len</t>
+  </si>
+  <si>
+    <t>St7_Len</t>
+  </si>
+  <si>
+    <t>St8_Len</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>strings</t>
+  </si>
+  <si>
+    <t>V31</t>
+  </si>
+  <si>
+    <t>Value 31</t>
+  </si>
+  <si>
+    <t>V32</t>
+  </si>
+  <si>
+    <t>Value 32</t>
+  </si>
+  <si>
+    <t>V33</t>
+  </si>
+  <si>
+    <t>Value 33</t>
+  </si>
+  <si>
+    <t>V34</t>
+  </si>
+  <si>
+    <t>Value 34</t>
+  </si>
+  <si>
+    <t>V35</t>
+  </si>
+  <si>
+    <t>Value 35</t>
+  </si>
+  <si>
+    <t>V36</t>
+  </si>
+  <si>
+    <t>Value 36</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A58" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2889,6 +3173,1696 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12">
+        <f>SUM(D7:D74)</f>
+        <v>132</v>
+      </c>
+      <c r="D7" s="4">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="11">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11">
+        <v>399</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12">
+        <f>LEN(C16)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="13">
+        <f>C15</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>4</v>
+      </c>
+      <c r="E17" s="4">
+        <v>4</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="12">
+        <f>LEN(C19)</f>
+        <v>4</v>
+      </c>
+      <c r="D18" s="4">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4">
+        <v>4</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="13">
+        <f>C18</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="4">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="12">
+        <f>C13</f>
+        <v>33</v>
+      </c>
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="11">
+        <f>COUNTA(C23,C25,C27,C29,C31)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="4">
+        <v>4</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="12">
+        <f>LEN(C23)</f>
+        <v>4</v>
+      </c>
+      <c r="D22" s="13">
+        <f>IF(C22&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="13">
+        <f>C22</f>
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="12">
+        <f>LEN(C25)</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="13">
+        <f>IF(C24&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="13">
+        <f>C24</f>
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="12">
+        <f>LEN(C27)</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="13">
+        <f>IF(C26&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="13">
+        <f>C26</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="12">
+        <f>LEN(C29)</f>
+        <v>8</v>
+      </c>
+      <c r="D28" s="13">
+        <f>IF(C28&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="13">
+        <f>C28</f>
+        <v>8</v>
+      </c>
+      <c r="F29" s="4">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="12">
+        <f>LEN(C31)</f>
+        <v>5</v>
+      </c>
+      <c r="D30" s="13">
+        <f>IF(C30&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="13">
+        <f>C30</f>
+        <v>5</v>
+      </c>
+      <c r="F31" s="4">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="12">
+        <f>LEN(C33)</f>
+        <v>4</v>
+      </c>
+      <c r="D32" s="13">
+        <f>IF(C32&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D33" s="13">
+        <f>C32</f>
+        <v>4</v>
+      </c>
+      <c r="F33" s="4">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="12">
+        <f>LEN(C35)</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="13">
+        <f>IF(C34&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="13">
+        <f>C34</f>
+        <v>5</v>
+      </c>
+      <c r="F35" s="4">
+        <v>80</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="12">
+        <f>LEN(C37)</f>
+        <v>7</v>
+      </c>
+      <c r="D36" s="13">
+        <f>IF(C36&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="13">
+        <f>C36</f>
+        <v>7</v>
+      </c>
+      <c r="F37" s="4">
+        <v>80</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="11">
+        <f>COUNTA(C39:C74)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="4">
+        <v>4</v>
+      </c>
+      <c r="E38" s="4">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="11">
+        <v>99</v>
+      </c>
+      <c r="D39" s="13">
+        <v>4</v>
+      </c>
+      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="13">
+        <f>IF(C40&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="13">
+        <f t="shared" ref="D41:D74" si="0">IF(C41&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>124</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="4">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="4">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>127</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>4</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="4">
+        <v>4</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="4">
+        <v>4</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>134</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="4">
+        <v>4</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" t="s">
+        <v>48</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
+        <v>4</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>4</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>4</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13">
+        <f t="shared" ref="D68:D70" si="1">IF(C68&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="G68" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>169</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="13">
+        <f t="shared" ref="D71:D73" si="2">IF(C71&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <v>4</v>
+      </c>
+      <c r="G71" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>174</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <v>4</v>
+      </c>
+      <c r="G72" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <v>4</v>
+      </c>
+      <c r="G73" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <v>4</v>
+      </c>
+      <c r="G74" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16">
+        <f>SUM(D6:D74)</f>
+        <v>132</v>
+      </c>
+      <c r="E76" s="17">
+        <f>SUM(E6:E74)</f>
+        <v>49</v>
+      </c>
+      <c r="F76" s="17">
+        <f>SUM(F6:F74)</f>
+        <v>1024</v>
+      </c>
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H3"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F56"/>
   <sheetViews>
@@ -3749,7 +5723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G23"/>
   <sheetViews>
@@ -4104,12 +6078,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/docs/YYMMDD_A042_Protokoll_PF.xlsx
+++ b/docs/YYMMDD_A042_Protokoll_PF.xlsx
@@ -273,8 +273,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1..10
-</t>
+1, 2, 3 . . .
+Ende muss noch definiert werden!</t>
         </r>
       </text>
     </comment>
@@ -309,30 +309,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fleischp:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Feedback Instruction is always "Reply"</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -356,8 +332,6 @@
 0=No Feedback
 1=Feedback
 20…for User
-**************************************************
-- Max können 20 Task auf einem Kontroller arbeiten!
 </t>
         </r>
       </text>
@@ -382,7 +356,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Done
+Feedbacklevel 1 = Done
 Done FError "Feedback Level"  (Unsupportet Feedback Level)
  </t>
         </r>
@@ -434,7 +408,8 @@
           </rPr>
           <t xml:space="preserve">
 Min 0
-Max 5</t>
+Max 8
+</t>
         </r>
       </text>
     </comment>
@@ -459,7 +434,8 @@
           </rPr>
           <t xml:space="preserve">
 Min 0
-Max 30</t>
+Max 36
+</t>
         </r>
       </text>
     </comment>
@@ -757,7 +733,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="178">
   <si>
     <t xml:space="preserve">Header </t>
   </si>
@@ -1254,15 +1230,6 @@
     <t>St8_Len</t>
   </si>
   <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>strings</t>
-  </si>
-  <si>
     <t>V31</t>
   </si>
   <si>
@@ -1297,6 +1264,9 @@
   </si>
   <si>
     <t>Value 36</t>
+  </si>
+  <si>
+    <t>r_A042_Dummy</t>
   </si>
 </sst>
 </file>
@@ -3177,7 +3147,7 @@
   <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3269,7 +3239,7 @@
       </c>
       <c r="C7" s="12">
         <f>SUM(D7:D74)</f>
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4">
         <v>4</v>
@@ -3441,7 +3411,7 @@
       </c>
       <c r="C15" s="12">
         <f>LEN(C16)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
         <v>4</v>
@@ -3467,11 +3437,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="D16" s="13">
         <f>C15</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -3597,9 +3567,9 @@
       <c r="B21" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="12">
         <f>COUNTA(C23,C25,C27,C29,C31)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D21" s="4">
         <v>4</v>
@@ -3626,11 +3596,11 @@
       </c>
       <c r="C22" s="12">
         <f>LEN(C23)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D22" s="13">
         <f>IF(C22&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F22" s="4">
         <v>4</v>
@@ -3649,12 +3619,10 @@
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="C23" s="11"/>
       <c r="D23" s="13">
         <f>C22</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" s="4">
         <v>80</v>
@@ -3675,11 +3643,11 @@
       </c>
       <c r="C24" s="12">
         <f>LEN(C25)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" s="13">
         <f>IF(C24&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>4</v>
@@ -3698,12 +3666,10 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>89</v>
-      </c>
+      <c r="C25" s="11"/>
       <c r="D25" s="13">
         <f>C24</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25" s="4">
         <v>80</v>
@@ -3724,11 +3690,11 @@
       </c>
       <c r="C26" s="12">
         <f>LEN(C27)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="13">
         <f>IF(C26&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F26" s="4">
         <v>4</v>
@@ -3747,12 +3713,10 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="C27" s="11"/>
       <c r="D27" s="13">
         <f>C26</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="4">
         <v>80</v>
@@ -3773,11 +3737,11 @@
       </c>
       <c r="C28" s="12">
         <f>LEN(C29)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D28" s="13">
         <f>IF(C28&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4">
         <v>4</v>
@@ -3796,12 +3760,10 @@
       <c r="B29" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>91</v>
-      </c>
+      <c r="C29" s="11"/>
       <c r="D29" s="13">
         <f>C28</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4">
         <v>80</v>
@@ -3822,11 +3784,11 @@
       </c>
       <c r="C30" s="12">
         <f>LEN(C31)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D30" s="13">
         <f>IF(C30&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>4</v>
@@ -3845,12 +3807,10 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>92</v>
-      </c>
+      <c r="C31" s="11"/>
       <c r="D31" s="13">
         <f>C30</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4">
         <v>80</v>
@@ -3871,11 +3831,11 @@
       </c>
       <c r="C32" s="12">
         <f>LEN(C33)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D32" s="13">
         <f>IF(C32&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F32" s="4">
         <v>4</v>
@@ -3894,12 +3854,10 @@
       <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>165</v>
-      </c>
+      <c r="C33" s="11"/>
       <c r="D33" s="13">
         <f>C32</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F33" s="4">
         <v>80</v>
@@ -3920,11 +3878,11 @@
       </c>
       <c r="C34" s="12">
         <f>LEN(C35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D34" s="13">
         <f>IF(C34&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F34" s="4">
         <v>4</v>
@@ -3943,12 +3901,10 @@
       <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>166</v>
-      </c>
+      <c r="C35" s="11"/>
       <c r="D35" s="13">
         <f>C34</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F35" s="4">
         <v>80</v>
@@ -3969,11 +3925,11 @@
       </c>
       <c r="C36" s="12">
         <f>LEN(C37)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D36" s="13">
         <f>IF(C36&gt;=1,4,0)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4">
         <v>4</v>
@@ -3992,12 +3948,10 @@
       <c r="B37" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>167</v>
-      </c>
+      <c r="C37" s="11"/>
       <c r="D37" s="13">
         <f>C36</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F37" s="4">
         <v>80</v>
@@ -4016,9 +3970,9 @@
       <c r="B38" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <f>COUNTA(C39:C74)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
@@ -4043,11 +3997,10 @@
       <c r="B39" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="11">
-        <v>99</v>
-      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="13">
-        <v>4</v>
+        <f>IF(C39&gt;=1,4,0)</f>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
         <v>4</v>
@@ -4699,10 +4652,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="13">
@@ -4721,10 +4674,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="13">
@@ -4743,10 +4696,10 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="13">
@@ -4765,10 +4718,10 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="13">
@@ -4787,10 +4740,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="13">
@@ -4809,10 +4762,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="13">
@@ -4837,7 +4790,7 @@
       <c r="C76" s="15"/>
       <c r="D76" s="16">
         <f>SUM(D6:D74)</f>
-        <v>132</v>
+        <v>64</v>
       </c>
       <c r="E76" s="17">
         <f>SUM(E6:E74)</f>

--- a/docs/YYMMDD_A042_Protokoll_PF.xlsx
+++ b/docs/YYMMDD_A042_Protokoll_PF.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="A042_Protocol Version 1" sheetId="1" r:id="rId1"/>
     <sheet name="A042_Protocol_Version 2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="Min" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Performance_Max" sheetId="2" r:id="rId3"/>
+    <sheet name="Performance_Min" sheetId="3" r:id="rId4"/>
+    <sheet name="Performance_Rechnung" sheetId="6" r:id="rId5"/>
+    <sheet name="für Mike" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -309,6 +310,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Max 32 Zeichen für RAPID Prozedur aufruf möglich</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -449,75 +474,6 @@
     <author>fleischp</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fleischp:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-0=NotOkay
-1=Receiver
-2=MotionTask
-3=Sender
-10=Master
-20…for User
-**************************************************
-- Max können 20 Task auf einem Kontroller arbeiten!
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>fleischp:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Ev. Executen Level 
-No Motion 
-Special Task 
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>fleischp</author>
-  </authors>
-  <commentList>
     <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <r>
@@ -538,8 +494,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1..10
-</t>
+1, 2, 3 . . .
+Ende muss noch definiert werden!</t>
         </r>
       </text>
     </comment>
@@ -574,7 +530,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +538,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>fleischp:</t>
         </r>
@@ -591,15 +547,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-0=No Feedback
-1=Feedback
-20…for User
-**************************************************
-- Max können 20 Task auf einem Kontroller arbeiten!
-</t>
+Max 32 Zeichen für RAPID Prozedur aufruf möglich</t>
         </r>
       </text>
     </comment>
@@ -623,7 +574,10 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Feedback Instruction is always "Reply"</t>
+0=No Feedback
+1=Feedback
+20…for User
+</t>
         </r>
       </text>
     </comment>
@@ -647,9 +601,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Done
+Feedbacklevel 1 = Done
 Done FError "Feedback Level"  (Unsupportet Feedback Level)
  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Send = Not in use
+Feedback = In use</t>
         </r>
       </text>
     </comment>
@@ -699,11 +678,12 @@
           </rPr>
           <t xml:space="preserve">
 Min 0
-Max 5</t>
+Max 8
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -724,7 +704,253 @@
           </rPr>
           <t xml:space="preserve">
 Min 0
-Max 30</t>
+Max 36
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>fleischp</author>
+  </authors>
+  <commentList>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1, 2, 3 . . .
+Ende muss noch definiert werden!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=MotionTask
+1=Receiver
+2=Sender
+10=Master
+20…for User
+**************************************************
+- Max können 20 Task auf einem Kontroller arbeiten!
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Max 32 Zeichen für RAPID Prozedur aufruf möglich</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+0=No Feedback
+1=Feedback
+20…for User
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Feedbacklevel 1 = Done
+Done FError "Feedback Level"  (Unsupportet Feedback Level)
+ </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Send = Not in use
+Feedback = In use</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Sendet die Sequenz ID des Befehls zurück 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Min 0
+Max 8
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>fleischp:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Min 0
+Max 36
+</t>
         </r>
       </text>
     </comment>
@@ -733,7 +959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="210">
   <si>
     <t xml:space="preserve">Header </t>
   </si>
@@ -741,9 +967,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Bytes</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -765,21 +988,12 @@
     <t>Instrunction Length</t>
   </si>
   <si>
-    <t>String 1 Lengt</t>
-  </si>
-  <si>
     <t>String 1</t>
   </si>
   <si>
     <t>Value 1</t>
   </si>
   <si>
-    <t>Sequenz Numbre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IsMotion </t>
-  </si>
-  <si>
     <t>Test Values</t>
   </si>
   <si>
@@ -798,9 +1012,6 @@
     <t>RAPID Data</t>
   </si>
   <si>
-    <t>String 2 Lengt</t>
-  </si>
-  <si>
     <t xml:space="preserve">String 2 </t>
   </si>
   <si>
@@ -810,15 +1021,6 @@
     <t>String 4</t>
   </si>
   <si>
-    <t>String 4 Lengt</t>
-  </si>
-  <si>
-    <t>String 3 Lengt</t>
-  </si>
-  <si>
-    <t>String 5 Lengt</t>
-  </si>
-  <si>
     <t>String 5</t>
   </si>
   <si>
@@ -909,36 +1111,9 @@
     <t>Value 30</t>
   </si>
   <si>
-    <t>Updates</t>
-  </si>
-  <si>
-    <t>ExeLevel</t>
-  </si>
-  <si>
     <t>Feedback</t>
   </si>
   <si>
-    <t xml:space="preserve">Hi, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the answer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">is </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A042 :) </t>
-  </si>
-  <si>
-    <t>FeedbackLevel</t>
-  </si>
-  <si>
-    <t>Byte Limit</t>
-  </si>
-  <si>
     <t>Current Byte</t>
   </si>
   <si>
@@ -948,15 +1123,9 @@
     <t>TimeStampNanoSec</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Sequenz ID</t>
   </si>
   <si>
-    <t>Stirng Counter</t>
-  </si>
-  <si>
     <t>Value Counter</t>
   </si>
   <si>
@@ -1266,14 +1435,167 @@
     <t>Value 36</t>
   </si>
   <si>
-    <t>r_A042_Dummy</t>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>bbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbb</t>
+  </si>
+  <si>
+    <t>cccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccccc</t>
+  </si>
+  <si>
+    <t>dddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>eeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeeee</t>
+  </si>
+  <si>
+    <t>ffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffffff</t>
+  </si>
+  <si>
+    <t>gggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggggg</t>
+  </si>
+  <si>
+    <t>hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>Done_PerfooooooooooooooooooooooooooooooooooooooooooooooooooooooormenzTestMaxData</t>
+  </si>
+  <si>
+    <t>r_A042_PerfoooormanceTestMaxData</t>
+  </si>
+  <si>
+    <t>Performance Minimum Data</t>
+  </si>
+  <si>
+    <t>r_A042_P</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Performance Maximum Data</t>
+  </si>
+  <si>
+    <t>192.168.125.13</t>
+  </si>
+  <si>
+    <t>192.168.125.1</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>65197 → 30101 [PSH, ACK] Seq=1 Ack=1 Win=2102272 Len=620</t>
+  </si>
+  <si>
+    <t>Anzahl Bytes</t>
+  </si>
+  <si>
+    <t>Byte</t>
+  </si>
+  <si>
+    <t>30201 → 65196 [PSH, ACK] Seq=1 Ack=1 Win=17520 Len=700</t>
+  </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>65197 → 30101 [PSH, ACK] Seq=621 Ack=1 Win=2102272 Len=60</t>
+  </si>
+  <si>
+    <t>30201 → 65196 [PSH, ACK] Seq=701 Ack=1 Win=17520 Len=61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Byte Differenz </t>
+  </si>
+  <si>
+    <t>Zeit Differenz</t>
+  </si>
+  <si>
+    <t>Zeit pro RRC Protokoll Byte</t>
+  </si>
+  <si>
+    <t>RRC Protokollgrösse</t>
+  </si>
+  <si>
+    <t>Zu erwartende Zeit</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Resultat Wireshark</t>
+  </si>
+  <si>
+    <t>Max Daten zu Roboter</t>
+  </si>
+  <si>
+    <t>Max Daten von Roboter</t>
+  </si>
+  <si>
+    <t>Min Daten zu Roboter</t>
+  </si>
+  <si>
+    <t>Min Daten von Roboter</t>
+  </si>
+  <si>
+    <t>Zeit [ms]</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Length </t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Time [ms]</t>
+  </si>
+  <si>
+    <t>Max RRC Data</t>
+  </si>
+  <si>
+    <t>RRC Data [Byte]</t>
+  </si>
+  <si>
+    <t>Min RRC Data</t>
+  </si>
+  <si>
+    <t>RRC Byte</t>
+  </si>
+  <si>
+    <t>RRC send_and_wait</t>
+  </si>
+  <si>
+    <t>RRC send</t>
+  </si>
+  <si>
+    <t>~ Berechnung</t>
+  </si>
+  <si>
+    <t>Performance Rechnung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1365,8 +1687,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1385,8 +1721,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1405,21 +1747,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1451,6 +1876,108 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,1400 +2261,1400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
         <f>SUM(D7:D62)</f>
         <v>104</v>
       </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
         <v>33</v>
       </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8">
         <v>399</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="11">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8">
         <v>33</v>
       </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
+        <v>129</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>LEN(C16)</f>
         <v>8</v>
       </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
         <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="13">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10">
         <f>C15</f>
         <v>8</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="11">
+        <v>128</v>
+      </c>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="12">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
         <f>LEN(C19)</f>
         <v>4</v>
       </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="13">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="10">
         <f>C18</f>
         <v>4</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9">
         <f>C13</f>
         <v>33</v>
       </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="11">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8">
         <f>COUNTA(C23,C25,C27,C29,C31)</f>
         <v>5</v>
       </c>
-      <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="12">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
         <f>LEN(C23)</f>
         <v>4</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="10">
         <f>IF(C22&gt;=1,4,0)</f>
         <v>4</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="13">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="10">
         <f>C22</f>
         <v>4</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>80</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="12">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
         <f>LEN(C25)</f>
         <v>2</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <f>IF(C24&gt;=1,4,0)</f>
         <v>4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="13">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="10">
         <f>C24</f>
         <v>2</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>80</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="12">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
         <f>LEN(C27)</f>
         <v>1</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <f>IF(C26&gt;=1,4,0)</f>
         <v>4</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="13">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="10">
         <f>C26</f>
         <v>1</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="12">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
         <f>LEN(C29)</f>
         <v>8</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="10">
         <f>IF(C28&gt;=1,4,0)</f>
         <v>4</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="13">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="10">
         <f>C28</f>
         <v>8</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>80</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="12">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9">
         <f>LEN(C31)</f>
         <v>5</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="10">
         <f>IF(C30&gt;=1,4,0)</f>
         <v>4</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="13">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="10">
         <f>C30</f>
         <v>5</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>80</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="11">
+        <v>55</v>
+      </c>
+      <c r="C32" s="8">
         <f>COUNTA(C33:C62)</f>
         <v>1</v>
       </c>
-      <c r="D32" s="4">
-        <v>4</v>
-      </c>
-      <c r="E32" s="4">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4">
+      <c r="D32" s="2">
+        <v>4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="11">
+        <v>10</v>
+      </c>
+      <c r="C33" s="8">
         <v>99</v>
       </c>
-      <c r="D33" s="13">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="D33" s="10">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2">
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="13">
+        <v>21</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10">
         <f>IF(C34&gt;=1,4,0)</f>
         <v>0</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="13">
+        <v>22</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="10">
         <f t="shared" ref="D35:D62" si="0">IF(C35&gt;=1,4,0)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
+        <v>24</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
+        <v>25</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
+        <v>26</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+        <v>27</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
+        <v>28</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+        <v>29</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+        <v>30</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+        <v>31</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+        <v>32</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
+        <v>33</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+        <v>34</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
+        <v>35</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+        <v>36</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+        <v>37</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+        <v>38</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
+        <v>39</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+        <v>40</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
+        <v>41</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+        <v>42</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
+        <v>43</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+        <v>44</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
+        <v>45</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+        <v>46</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
+        <v>47</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+        <v>48</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
+        <v>49</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16">
+      <c r="A64" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="13">
         <f>SUM(D6:D62)</f>
         <v>104</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="14">
         <f>SUM(E6:E62)</f>
         <v>49</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="14">
         <f>SUM(F6:F62)</f>
         <v>748</v>
       </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3146,1662 +3673,1753 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="A1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
         <f>SUM(D7:D74)</f>
-        <v>64</v>
-      </c>
-      <c r="D7" s="4">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4">
+        <v>976</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="4">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
         <v>33</v>
       </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4">
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2">
         <v>4</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8">
         <v>399</v>
       </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="11">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8">
         <v>33</v>
       </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2">
         <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4">
+        <v>129</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
         <v>4</v>
       </c>
       <c r="G14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>LEN(C16)</f>
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
       <c r="H15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C15</f>
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
         <v>7</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D16" s="13">
-        <f>C15</f>
-        <v>12</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C17" s="11">
+        <v>128</v>
+      </c>
+      <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2">
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="12">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
         <f>LEN(C19)</f>
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" s="4">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="13">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="10">
         <f>C18</f>
-        <v>4</v>
-      </c>
-      <c r="F19" s="4">
         <v>80</v>
       </c>
+      <c r="F19" s="2">
+        <v>80</v>
+      </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="12">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9">
         <f>C13</f>
         <v>33</v>
       </c>
-      <c r="D20" s="4">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4">
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="12">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9">
         <f>COUNTA(C23,C25,C27,C29,C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2">
         <v>4</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="12">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
         <f>LEN(C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="13">
+        <v>80</v>
+      </c>
+      <c r="D22" s="10">
         <f>IF(C22&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2">
         <v>4</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="13">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="10">
         <f>C22</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
         <v>80</v>
       </c>
+      <c r="F23" s="2">
+        <v>80</v>
+      </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="12">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
         <f>LEN(C25)</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="13">
+        <v>80</v>
+      </c>
+      <c r="D24" s="10">
         <f>IF(C24&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="13">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="10">
         <f>C24</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
         <v>80</v>
       </c>
+      <c r="F25" s="2">
+        <v>80</v>
+      </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="12">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
         <f>LEN(C27)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
+        <v>80</v>
+      </c>
+      <c r="D26" s="10">
         <f>IF(C26&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
         <v>4</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="13">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="10">
         <f>C26</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
         <v>80</v>
       </c>
+      <c r="F27" s="2">
+        <v>80</v>
+      </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="12">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
         <f>LEN(C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="13">
+        <v>80</v>
+      </c>
+      <c r="D28" s="10">
         <f>IF(C28&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2">
         <v>4</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="10">
         <f>C28</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
         <v>80</v>
       </c>
+      <c r="F29" s="2">
+        <v>80</v>
+      </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="12">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9">
         <f>LEN(C31)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="13">
+        <v>80</v>
+      </c>
+      <c r="D30" s="10">
         <f>IF(C30&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
         <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="13">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="10">
         <f>C30</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
         <v>80</v>
       </c>
+      <c r="F31" s="2">
+        <v>80</v>
+      </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="12">
+        <v>65</v>
+      </c>
+      <c r="C32" s="9">
         <f>LEN(C33)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="13">
+        <v>80</v>
+      </c>
+      <c r="D32" s="10">
         <f>IF(C32&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="13">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D33" s="10">
         <f>C32</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
         <v>80</v>
       </c>
+      <c r="F33" s="2">
+        <v>80</v>
+      </c>
       <c r="G33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="12">
+        <v>66</v>
+      </c>
+      <c r="C34" s="9">
         <f>LEN(C35)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="13">
+        <v>80</v>
+      </c>
+      <c r="D34" s="10">
         <f>IF(C34&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2">
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="13">
+        <v>19</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="10">
         <f>C34</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
         <v>80</v>
       </c>
+      <c r="F35" s="2">
+        <v>80</v>
+      </c>
       <c r="G35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" s="12">
+        <v>67</v>
+      </c>
+      <c r="C36" s="9">
         <f>LEN(C37)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="13">
+        <v>80</v>
+      </c>
+      <c r="D36" s="10">
         <f>IF(C36&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="13">
+        <v>20</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="10">
         <f>C36</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
         <v>80</v>
       </c>
+      <c r="F37" s="2">
+        <v>80</v>
+      </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="12">
+        <v>55</v>
+      </c>
+      <c r="C38" s="9">
         <f>COUNTA(C39:C74)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4</v>
-      </c>
-      <c r="E38" s="4">
-        <v>4</v>
-      </c>
-      <c r="F38" s="4">
+        <v>36</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+      <c r="E38" s="2">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="13">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
         <f>IF(C39&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2">
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="13">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10">
         <f>IF(C40&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="13">
+        <v>22</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10">
         <f t="shared" ref="D41:D74" si="0">IF(C41&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+        <v>26</v>
+      </c>
+      <c r="C45" s="8">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F45" s="2">
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
+        <v>27</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F46" s="2">
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F47" s="2">
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8">
+        <v>13</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
         <v>4</v>
       </c>
       <c r="G51" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8">
+        <v>14</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F52" s="2">
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8">
+        <v>15</v>
+      </c>
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F53" s="2">
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <v>16</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F54" s="2">
         <v>4</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
+        <v>36</v>
+      </c>
+      <c r="C55" s="8">
+        <v>17</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F55" s="2">
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
+        <v>37</v>
+      </c>
+      <c r="C56" s="8">
+        <v>18</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F56" s="2">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8">
+        <v>19</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F57" s="2">
         <v>4</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8">
+        <v>20</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F58" s="2">
         <v>4</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F59" s="4">
+        <v>40</v>
+      </c>
+      <c r="C59" s="8">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F59" s="2">
         <v>4</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
+        <v>41</v>
+      </c>
+      <c r="C60" s="8">
+        <v>22</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" s="2">
         <v>4</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8">
+        <v>23</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F61" s="2">
         <v>4</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="4">
+        <v>43</v>
+      </c>
+      <c r="C62" s="8">
+        <v>24</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" s="2">
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="4">
+        <v>44</v>
+      </c>
+      <c r="C63" s="8">
+        <v>25</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F63" s="2">
         <v>4</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
+        <v>45</v>
+      </c>
+      <c r="C64" s="8">
+        <v>26</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F64" s="2">
         <v>4</v>
       </c>
       <c r="G64" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
+        <v>46</v>
+      </c>
+      <c r="C65" s="8">
+        <v>27</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F65" s="2">
         <v>4</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
+        <v>47</v>
+      </c>
+      <c r="C66" s="8">
+        <v>28</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F66" s="2">
         <v>4</v>
       </c>
       <c r="G66" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8">
+        <v>29</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F67" s="2">
         <v>4</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="13">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8">
+        <v>30</v>
+      </c>
+      <c r="D68" s="10">
         <f t="shared" ref="D68:D70" si="1">IF(C68&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2">
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="13">
+        <v>147</v>
+      </c>
+      <c r="C69" s="8">
+        <v>31</v>
+      </c>
+      <c r="D69" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F69" s="4">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2">
         <v>4</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B70" t="s">
-        <v>168</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="13">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8">
+        <v>32</v>
+      </c>
+      <c r="D70" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2">
         <v>4</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="B71" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="13">
+        <v>151</v>
+      </c>
+      <c r="C71" s="8">
+        <v>33</v>
+      </c>
+      <c r="D71" s="10">
         <f t="shared" ref="D71:D73" si="2">IF(C71&gt;=1,4,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F71" s="4">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
         <v>4</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="13">
+        <v>153</v>
+      </c>
+      <c r="C72" s="8">
+        <v>34</v>
+      </c>
+      <c r="D72" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F72" s="4">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2">
         <v>4</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="13">
+        <v>155</v>
+      </c>
+      <c r="C73" s="8">
+        <v>35</v>
+      </c>
+      <c r="D73" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
         <v>4</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F74" s="4">
+        <v>157</v>
+      </c>
+      <c r="C74" s="8">
+        <v>36</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F74" s="2">
         <v>4</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16">
+      <c r="A76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13">
         <f>SUM(D6:D74)</f>
-        <v>64</v>
-      </c>
-      <c r="E76" s="17">
+        <v>976</v>
+      </c>
+      <c r="E76" s="14">
         <f>SUM(E6:E74)</f>
         <v>49</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="14">
         <f>SUM(F6:F74)</f>
         <v>1024</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -4817,1214 +5435,2058 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F56"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="6" width="23" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="6" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(D7:D74)</f>
+        <v>700</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8">
+        <v>399</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>LEN(C16)</f>
+        <v>32</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C15</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
+        <f>LEN(C19)</f>
+        <v>80</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C18</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9">
+        <f>C13</f>
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="9">
+        <f>COUNTA(C23,C25,C27,C29,C31)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
+        <f>LEN(C23)</f>
+        <v>80</v>
+      </c>
+      <c r="D22" s="10">
+        <f>IF(C22&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="10">
+        <f>C22</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
+        <f>LEN(C25)</f>
+        <v>80</v>
+      </c>
+      <c r="D24" s="10">
+        <f>IF(C24&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" s="10">
+        <f>C24</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
+        <f>LEN(C27)</f>
+        <v>80</v>
+      </c>
+      <c r="D26" s="10">
+        <f>IF(C26&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D27" s="10">
+        <f>C26</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
+        <f>LEN(C29)</f>
+        <v>80</v>
+      </c>
+      <c r="D28" s="10">
+        <f>IF(C28&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="10">
+        <f>C28</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="9">
+        <f>LEN(C31)</f>
+        <v>80</v>
+      </c>
+      <c r="D30" s="10">
+        <f>IF(C30&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="10">
+        <f>C30</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="9">
+        <f>LEN(C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <f>IF(C32&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="10">
+        <f>C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="9">
+        <f>LEN(C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <f>IF(C34&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="10">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="9">
+        <f>LEN(C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <f>IF(C36&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="10">
+        <f>C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="9">
+        <f>COUNTA(C39:C74)</f>
+        <v>30</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <f>IF(C39&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2</v>
+      </c>
+      <c r="D40" s="10">
+        <f>IF(C40&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="8">
+        <v>3</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:D74" si="0">IF(C41&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8">
+        <v>4</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8">
+        <v>6</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="8">
+        <v>7</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="8">
+        <v>8</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8">
+        <v>9</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8">
+        <v>10</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8">
+        <v>11</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8">
+        <v>12</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8">
+        <v>13</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8">
+        <v>14</v>
+      </c>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8">
         <v>15</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8">
+        <v>16</v>
+      </c>
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="8">
+        <v>17</v>
+      </c>
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="8">
+        <v>18</v>
+      </c>
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8">
+        <v>19</v>
+      </c>
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8">
+        <v>20</v>
+      </c>
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="8">
+        <v>21</v>
+      </c>
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="8">
+        <v>22</v>
+      </c>
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8">
+        <v>23</v>
+      </c>
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="8">
+        <v>24</v>
+      </c>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="8">
+        <v>25</v>
+      </c>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="8">
+        <v>26</v>
+      </c>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="8">
+        <v>27</v>
+      </c>
+      <c r="D65" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="8">
+        <v>28</v>
+      </c>
+      <c r="D66" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8">
+        <v>29</v>
+      </c>
+      <c r="D67" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="8">
+        <v>30</v>
+      </c>
+      <c r="D68" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="D69" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4">
-        <f>LEN(C14)</f>
-        <v>8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="2">
-        <f>C13</f>
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4">
-        <f>LEN(C16)</f>
-        <v>4</v>
-      </c>
-      <c r="D15" s="2">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2">
-        <f>C15</f>
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4">
-        <f>LEN(C18)</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="2">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="2">
-        <f>C17</f>
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="4">
-        <f>LEN(C20)</f>
-        <v>11</v>
-      </c>
-      <c r="D19" s="2">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="2">
-        <f>C19</f>
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4">
-        <f>LEN(C22)</f>
-        <v>3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="2">
-        <f>C21</f>
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4">
-        <f>LEN(C24)</f>
-        <v>8</v>
-      </c>
-      <c r="D23" s="2">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="2">
-        <f>C23</f>
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>101</v>
-      </c>
-      <c r="D25" s="2">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="4">
-        <v>102</v>
-      </c>
-      <c r="D26" s="2">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="4">
-        <v>103</v>
-      </c>
-      <c r="D27" s="2">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="4">
-        <v>104</v>
-      </c>
-      <c r="D28" s="2">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="4">
-        <v>105</v>
-      </c>
-      <c r="D29" s="2">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="4">
-        <v>106</v>
-      </c>
-      <c r="D30" s="2">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="4">
-        <v>107</v>
-      </c>
-      <c r="D31" s="2">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4">
-        <v>108</v>
-      </c>
-      <c r="D32" s="2">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="4">
-        <v>109</v>
-      </c>
-      <c r="D33" s="2">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="4">
-        <v>110</v>
-      </c>
-      <c r="D34" s="2">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4">
-        <v>111</v>
-      </c>
-      <c r="D35" s="2">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>18</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="4">
-        <v>112</v>
-      </c>
-      <c r="D36" s="2">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="4">
-        <v>113</v>
-      </c>
-      <c r="D37" s="2">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="4">
-        <v>115</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="4">
-        <v>116</v>
-      </c>
-      <c r="D40" s="2">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="4">
-        <v>117</v>
-      </c>
-      <c r="D41" s="2">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="4">
-        <v>118</v>
-      </c>
-      <c r="D42" s="2">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="4">
-        <v>119</v>
-      </c>
-      <c r="D43" s="2">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="4">
-        <v>120</v>
-      </c>
-      <c r="D44" s="2">
-        <v>4</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="4">
-        <v>121</v>
-      </c>
-      <c r="D45" s="2">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="4">
-        <v>122</v>
-      </c>
-      <c r="D46" s="2">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="4">
-        <v>123</v>
-      </c>
-      <c r="D47" s="2">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="4">
-        <v>124</v>
-      </c>
-      <c r="D48" s="2">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="4">
-        <v>125</v>
-      </c>
-      <c r="D49" s="2">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="4">
-        <v>126</v>
-      </c>
-      <c r="D50" s="2">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="4">
-        <v>127</v>
-      </c>
-      <c r="D51" s="2">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="4">
-        <v>128</v>
-      </c>
-      <c r="D52" s="2">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="4">
-        <v>129</v>
-      </c>
-      <c r="D53" s="2">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="4">
-        <v>130</v>
-      </c>
-      <c r="D54" s="2">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="2">
-        <f>SUM(D6:D54)</f>
-        <v>202</v>
-      </c>
-    </row>
+      <c r="B76" s="12"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="13">
+        <f>SUM(D6:D74)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G23"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="E1" sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="7" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9">
+        <f>SUM(D7:D74)</f>
+        <v>61</v>
+      </c>
+      <c r="D7" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="8">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8">
+        <v>399</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8">
+        <v>33</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>LEN(C16)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="10">
+        <f>C15</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9">
+        <f>LEN(C19)</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="10">
+        <f>C18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="9">
+        <f>C13</f>
+        <v>33</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="C21" s="9">
+        <f>COUNTA(C23,C25,C27,C29,C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="9">
+        <f>LEN(C23)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <f>IF(C22&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10">
+        <f>C22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9">
+        <f>LEN(C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <f>IF(C24&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10">
+        <f>C24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
+        <f>LEN(C27)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <f>IF(C26&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="10">
+        <f>C26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="9">
+        <f>LEN(C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="10">
+        <f>IF(C28&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="10">
+        <f>C28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C30" s="9">
+        <f>LEN(C31)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="10">
+        <f>IF(C30&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="10">
+        <f>C30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="9">
+        <f>LEN(C33)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="10">
+        <f>IF(C32&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10">
+        <f>C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="9">
+        <f>LEN(C35)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="10">
+        <f>IF(C34&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="C35" s="8"/>
+      <c r="D35" s="10">
+        <f>C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="9">
+        <f>LEN(C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="10">
+        <f>IF(C36&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="12">
-        <f>SUM(D6:D22)</f>
+      <c r="C37" s="8"/>
+      <c r="D37" s="10">
+        <f>C36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="9">
+        <f>COUNTA(C39:C74)</f>
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="10">
+        <f>IF(C39&gt;=1,4,0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="10">
+        <f>IF(C40&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="10">
+        <f t="shared" ref="D41:D74" si="0">IF(C41&gt;=1,4,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="13">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>4</v>
-      </c>
-      <c r="E8" s="4">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="13">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="13">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13">
-        <v>4</v>
-      </c>
-      <c r="E15" s="4">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="12">
-        <f>LEN(C17)</f>
-        <v>1</v>
-      </c>
-      <c r="D16" s="13">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <f>C16</f>
-        <v>1</v>
-      </c>
-      <c r="E17" s="4">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="12">
-        <f>LEN(C19)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>4</v>
-      </c>
-      <c r="E18" s="4">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13">
-        <f>C18</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="11">
-        <v>1</v>
-      </c>
-      <c r="D20" s="13">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="11">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13">
-        <v>4</v>
-      </c>
-      <c r="E21" s="4">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="13">
-        <f>SUM(D6:D22)</f>
-        <v>49</v>
-      </c>
-      <c r="E23" s="4">
-        <f>SUM(E6:E22)</f>
-        <v>208</v>
-      </c>
-    </row>
+      <c r="C68" s="8"/>
+      <c r="D68" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="13">
+        <f>SUM(D6:D74)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6032,6 +7494,525 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="58" t="s">
+        <v>203</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="32"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="54"/>
+    </row>
+    <row r="4" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="54"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" s="24">
+        <v>2641</v>
+      </c>
+      <c r="C5" s="24">
+        <v>24.354835000000001</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="26">
+        <v>674</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="33"/>
+      <c r="J5" s="57">
+        <v>620</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M5" s="22">
+        <f>SUM(J5:J6)</f>
+        <v>1320</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="24">
+        <v>2643</v>
+      </c>
+      <c r="C6" s="24">
+        <v>24.446379</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="26">
+        <v>754</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="34">
+        <f>(C6-C5)*1000</f>
+        <v>91.54399999999896</v>
+      </c>
+      <c r="J6" s="57">
+        <v>700</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" t="s">
+        <v>179</v>
+      </c>
+      <c r="M6" s="22">
+        <f>I6</f>
+        <v>91.54399999999896</v>
+      </c>
+      <c r="N6" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O6" s="52"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="57"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="24">
+        <v>2792</v>
+      </c>
+      <c r="C8" s="24">
+        <v>24.978383000000001</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G8" s="26">
+        <v>114</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="57">
+        <v>60</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="L8" t="s">
+        <v>176</v>
+      </c>
+      <c r="M8" s="22">
+        <f>SUM(J8:J9)</f>
+        <v>121</v>
+      </c>
+      <c r="N8" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O8" s="52"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="24">
+        <v>2793</v>
+      </c>
+      <c r="C9" s="24">
+        <v>25.035176</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="26">
+        <v>115</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="34">
+        <f>(C9-C8)*1000</f>
+        <v>56.792999999998983</v>
+      </c>
+      <c r="J9" s="57">
+        <v>61</v>
+      </c>
+      <c r="K9" s="38"/>
+      <c r="L9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M9" s="22">
+        <f>I9</f>
+        <v>56.792999999998983</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="52"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="38" t="s">
+        <v>205</v>
+      </c>
+      <c r="L11" t="s">
+        <v>183</v>
+      </c>
+      <c r="M11" s="22">
+        <f>M5-M8</f>
+        <v>1199</v>
+      </c>
+      <c r="N11" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O11" s="52"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="38"/>
+      <c r="L12" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="22">
+        <f>M6-M9</f>
+        <v>34.750999999999976</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O12" s="52"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="38"/>
+      <c r="L13" t="s">
+        <v>185</v>
+      </c>
+      <c r="M13" s="22">
+        <f>M12/M11</f>
+        <v>2.8983319432860699E-2</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O13" s="52"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="L15" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" s="39">
+        <f>2*1024</f>
+        <v>2048</v>
+      </c>
+      <c r="N15" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O15" s="52"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="38"/>
+      <c r="L16" t="s">
+        <v>187</v>
+      </c>
+      <c r="M16" s="1">
+        <f>ROUND(M13*M15+M9,0)</f>
+        <v>116</v>
+      </c>
+      <c r="N16" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" s="39">
+        <v>1024</v>
+      </c>
+      <c r="N18" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="44"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="38"/>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="1">
+        <f>ROUND(M13*M18+(M9/2),0)</f>
+        <v>58</v>
+      </c>
+      <c r="N19" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K11:K13"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="K5:K6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BE2"/>
   <sheetViews>
@@ -6079,175 +8060,175 @@
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S1" t="s">
         <v>94</v>
       </c>
-      <c r="E1" t="s">
+      <c r="T1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U1" t="s">
         <v>95</v>
       </c>
-      <c r="F1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="V1" t="s">
+        <v>91</v>
+      </c>
+      <c r="W1" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" t="s">
         <v>98</v>
       </c>
-      <c r="I1" t="s">
+      <c r="AC1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" t="s">
+      <c r="AE1" t="s">
         <v>101</v>
       </c>
-      <c r="K1" t="s">
+      <c r="AF1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH1" t="s">
         <v>104</v>
       </c>
-      <c r="L1" t="s">
-        <v>102</v>
-      </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AI1" t="s">
         <v>105</v>
       </c>
-      <c r="O1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="AJ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AL1" t="s">
         <v>108</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AM1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" t="s">
-        <v>109</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="AR1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="AS1" t="s">
         <v>115</v>
       </c>
-      <c r="X1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AT1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU1" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AV1" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AW1" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AX1" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AY1" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AZ1" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BA1" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BB1" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="BC1" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BD1" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BE1" t="s">
         <v>127</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>142</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.25">
@@ -6258,7 +8239,7 @@
         <v>20.343</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>120</v>
@@ -6282,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L2">
         <v>0</v>

--- a/docs/YYMMDD_A042_Protokoll_PF.xlsx
+++ b/docs/YYMMDD_A042_Protokoll_PF.xlsx
@@ -1564,9 +1564,6 @@
     <t>Info</t>
   </si>
   <si>
-    <t>Time [ms]</t>
-  </si>
-  <si>
     <t>Max RRC Data</t>
   </si>
   <si>
@@ -1589,6 +1586,9 @@
   </si>
   <si>
     <t>Performance Rechnung</t>
+  </si>
+  <si>
+    <t>Time [s]</t>
   </si>
 </sst>
 </file>
@@ -1871,12 +1871,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1899,14 +1893,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1916,15 +1904,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1977,6 +1956,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2275,36 +2275,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -2334,16 +2334,16 @@
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2454,16 +2454,16 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3690,36 +3690,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -3749,16 +3749,16 @@
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3869,16 +3869,16 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5438,7 +5438,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,24 +5450,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -5476,7 +5476,7 @@
       <c r="B4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -5485,12 +5485,12 @@
     </row>
     <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5551,12 +5551,12 @@
     </row>
     <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5652,7 +5652,7 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D19" s="10">
@@ -5713,7 +5713,7 @@
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D23" s="10">
@@ -5744,7 +5744,7 @@
       <c r="B25" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>159</v>
       </c>
       <c r="D25" s="10">
@@ -5775,7 +5775,7 @@
       <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>160</v>
       </c>
       <c r="D27" s="10">
@@ -5806,7 +5806,7 @@
       <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D29" s="10">
@@ -5837,7 +5837,7 @@
       <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>162</v>
       </c>
       <c r="D31" s="10">
@@ -5868,7 +5868,7 @@
       <c r="B33" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="19"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="10">
         <f>C32</f>
         <v>0</v>
@@ -5897,7 +5897,7 @@
       <c r="B35" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="10">
         <f>C34</f>
         <v>0</v>
@@ -5926,7 +5926,7 @@
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="19"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="10">
         <f>C36</f>
         <v>0</v>
@@ -6474,7 +6474,7 @@
         <v>2</v>
       </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="18"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="13">
         <f>SUM(D6:D74)</f>
         <v>700</v>
@@ -6498,7 +6498,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:XFD6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6510,24 +6510,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -6545,12 +6545,12 @@
     </row>
     <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6613,12 +6613,12 @@
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -6714,7 +6714,7 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>170</v>
       </c>
       <c r="D19" s="10">
@@ -7497,8 +7497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7518,57 +7518,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="J2" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>207</v>
+      </c>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39"/>
+      <c r="B3" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>209</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="J2" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="K2" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="52"/>
-    </row>
-    <row r="3" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>201</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>196</v>
@@ -7582,330 +7582,330 @@
       <c r="G3" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="56"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="54"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="47"/>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="47"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="22">
         <v>2641</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>24.354835000000001</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>674</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="57">
+      <c r="I5" s="29"/>
+      <c r="J5" s="50">
         <v>620</v>
       </c>
-      <c r="K5" s="38" t="s">
-        <v>202</v>
+      <c r="K5" s="54" t="s">
+        <v>201</v>
       </c>
       <c r="L5" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="20">
         <f>SUM(J5:J6)</f>
         <v>1320</v>
       </c>
-      <c r="N5" s="52" t="s">
+      <c r="N5" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="O5" s="52"/>
+      <c r="O5" s="45"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>2643</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>24.446379</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="24">
         <v>754</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="30">
         <f>(C6-C5)*1000</f>
         <v>91.54399999999896</v>
       </c>
-      <c r="J6" s="57">
+      <c r="J6" s="50">
         <v>700</v>
       </c>
-      <c r="K6" s="38"/>
+      <c r="K6" s="54"/>
       <c r="L6" t="s">
         <v>179</v>
       </c>
-      <c r="M6" s="22">
+      <c r="M6" s="20">
         <f>I6</f>
         <v>91.54399999999896</v>
       </c>
-      <c r="N6" s="52" t="s">
+      <c r="N6" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="57"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="50"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="22">
         <v>2792</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>24.978383000000001</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>114</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="57">
+      <c r="I8" s="29"/>
+      <c r="J8" s="50">
         <v>60</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>204</v>
+      <c r="K8" s="54" t="s">
+        <v>203</v>
       </c>
       <c r="L8" t="s">
         <v>176</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="20">
         <f>SUM(J8:J9)</f>
         <v>121</v>
       </c>
-      <c r="N8" s="52" t="s">
+      <c r="N8" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="O8" s="52"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>2793</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>25.035176</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="24">
         <v>115</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <f>(C9-C8)*1000</f>
         <v>56.792999999998983</v>
       </c>
-      <c r="J9" s="57">
+      <c r="J9" s="50">
         <v>61</v>
       </c>
-      <c r="K9" s="38"/>
+      <c r="K9" s="54"/>
       <c r="L9" t="s">
         <v>179</v>
       </c>
-      <c r="M9" s="22">
+      <c r="M9" s="20">
         <f>I9</f>
         <v>56.792999999998983</v>
       </c>
-      <c r="N9" s="52" t="s">
+      <c r="N9" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O9" s="52"/>
+      <c r="O9" s="45"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="38" t="s">
-        <v>205</v>
+      <c r="A11" s="42"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="54" t="s">
+        <v>204</v>
       </c>
       <c r="L11" t="s">
         <v>183</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <f>M5-M8</f>
         <v>1199</v>
       </c>
-      <c r="N11" s="52" t="s">
+      <c r="N11" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="O11" s="52"/>
+      <c r="O11" s="45"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="38"/>
+      <c r="A12" s="42"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="54"/>
       <c r="L12" t="s">
         <v>184</v>
       </c>
-      <c r="M12" s="22">
+      <c r="M12" s="20">
         <f>M6-M9</f>
         <v>34.750999999999976</v>
       </c>
-      <c r="N12" s="52" t="s">
+      <c r="N12" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O12" s="52"/>
+      <c r="O12" s="45"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="42"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="54"/>
       <c r="L13" t="s">
         <v>185</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="20">
         <f>M12/M11</f>
         <v>2.8983319432860699E-2</v>
       </c>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O13" s="52"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+      <c r="A14" s="42"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="38" t="s">
-        <v>206</v>
+      <c r="A15" s="42"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="54" t="s">
+        <v>205</v>
       </c>
       <c r="L15" t="s">
         <v>186</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="32">
         <f>2*1024</f>
         <v>2048</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="O15" s="52"/>
+      <c r="O15" s="45"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="38"/>
+      <c r="A16" s="42"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="54"/>
       <c r="L16" t="s">
         <v>187</v>
       </c>
@@ -7913,44 +7913,44 @@
         <f>ROUND(M13*M15+M9,0)</f>
         <v>116</v>
       </c>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O16" s="52"/>
+      <c r="O16" s="45"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
+      <c r="A17" s="42"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="38" t="s">
-        <v>207</v>
+      <c r="A18" s="42"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="54" t="s">
+        <v>206</v>
       </c>
       <c r="L18" t="s">
         <v>186</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="32">
         <v>1024</v>
       </c>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="O18" s="52"/>
+      <c r="O18" s="45"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="44"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="38"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="37"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="54"/>
       <c r="L19" t="s">
         <v>187</v>
       </c>
@@ -7958,43 +7958,43 @@
         <f>ROUND(M13*M18+(M9/2),0)</f>
         <v>58</v>
       </c>
-      <c r="N19" s="52" t="s">
+      <c r="N19" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="O19" s="52"/>
+      <c r="O19" s="45"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/docs/YYMMDD_A042_Protokoll_PF.xlsx
+++ b/docs/YYMMDD_A042_Protokoll_PF.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleischp\Documents\Bitbucket\compas_rrc\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcasas\eth\Projects\research\compas_rrc\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A042_Protocol Version 1" sheetId="1" r:id="rId1"/>
@@ -959,7 +959,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="216">
   <si>
     <t xml:space="preserve">Header </t>
   </si>
@@ -1589,6 +1589,24 @@
   </si>
   <si>
     <t>Time [s]</t>
+  </si>
+  <si>
+    <t>String 6 Length</t>
+  </si>
+  <si>
+    <t>String 6</t>
+  </si>
+  <si>
+    <t>String 7</t>
+  </si>
+  <si>
+    <t>String 7 Length</t>
+  </si>
+  <si>
+    <t>String 8 Length</t>
+  </si>
+  <si>
+    <t>String 8</t>
   </si>
 </sst>
 </file>
@@ -2261,20 +2279,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A58" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
@@ -2286,7 +2304,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -2296,7 +2314,7 @@
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -2306,7 +2324,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -2332,8 +2350,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
@@ -2345,7 +2363,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2372,7 +2390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2398,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -2424,7 +2442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -2450,10 +2468,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
@@ -2465,7 +2483,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -2491,7 +2509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -2517,7 +2535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -2544,7 +2562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -2571,7 +2589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -2597,7 +2615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -2624,7 +2642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -2648,7 +2666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -2727,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -2751,7 +2769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -2776,7 +2794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -2800,7 +2818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -2825,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -2849,7 +2867,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -2874,7 +2892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2898,7 +2916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>88</v>
       </c>
@@ -2923,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -2947,7 +2965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>97</v>
       </c>
@@ -2974,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2997,7 +3015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>99</v>
       </c>
@@ -3019,7 +3037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -3063,7 +3081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -3085,7 +3103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -3107,7 +3125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>104</v>
       </c>
@@ -3129,7 +3147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>105</v>
       </c>
@@ -3151,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>106</v>
       </c>
@@ -3173,7 +3191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>107</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>108</v>
       </c>
@@ -3217,7 +3235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -3239,7 +3257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>110</v>
       </c>
@@ -3261,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>111</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -3305,7 +3323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>113</v>
       </c>
@@ -3327,7 +3345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -3349,7 +3367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>115</v>
       </c>
@@ -3371,7 +3389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>116</v>
       </c>
@@ -3393,7 +3411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>117</v>
       </c>
@@ -3415,7 +3433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3437,7 +3455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>119</v>
       </c>
@@ -3459,7 +3477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>120</v>
       </c>
@@ -3481,7 +3499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>121</v>
       </c>
@@ -3503,7 +3521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>122</v>
       </c>
@@ -3525,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>123</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -3569,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -3591,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -3613,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>127</v>
       </c>
@@ -3635,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="11" t="s">
         <v>2</v>
       </c>
@@ -3656,7 +3674,7 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H3"/>
@@ -3673,23 +3691,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="95.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="95.265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
         <v>61</v>
       </c>
@@ -3701,7 +3719,7 @@
       <c r="G1" s="52"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
@@ -3711,7 +3729,7 @@
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
@@ -3721,7 +3739,7 @@
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -3747,8 +3765,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
@@ -3760,7 +3778,7 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -3787,7 +3805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -3795,7 +3813,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
@@ -3813,7 +3831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -3839,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -3865,10 +3883,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
@@ -3880,7 +3898,7 @@
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -3906,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -3932,7 +3950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3959,7 +3977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -3986,7 +4004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -4012,7 +4030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -4063,7 +4081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -4090,7 +4108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -4117,7 +4135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -4142,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -4166,7 +4184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -4215,7 +4233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -4240,7 +4258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -4264,7 +4282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -4289,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -4313,7 +4331,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -4338,7 +4356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -4362,12 +4380,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
       <c r="C32" s="9">
         <f>LEN(C33)</f>
@@ -4387,12 +4405,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>163</v>
@@ -4411,12 +4429,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="C34" s="9">
         <f>LEN(C35)</f>
@@ -4436,12 +4454,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>141</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>164</v>
@@ -4460,12 +4478,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="C36" s="9">
         <f>LEN(C37)</f>
@@ -4485,12 +4503,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>165</v>
@@ -4509,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -4560,7 +4578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -4584,7 +4602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -4608,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -4632,7 +4650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -4656,7 +4674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -4680,7 +4698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -4728,7 +4746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -4752,7 +4770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -4776,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -4800,7 +4818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -4824,7 +4842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -4848,7 +4866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -4872,7 +4890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -4896,7 +4914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -4920,7 +4938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -4944,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -4968,7 +4986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -4992,7 +5010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -5016,7 +5034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -5040,7 +5058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -5064,7 +5082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -5112,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -5136,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -5160,7 +5178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -5184,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -5208,7 +5226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -5232,7 +5250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -5256,7 +5274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -5280,7 +5298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -5304,7 +5322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -5328,7 +5346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -5352,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -5376,7 +5394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -5400,7 +5418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
@@ -5421,7 +5439,7 @@
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:8" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H3"/>
@@ -5441,15 +5459,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.3984375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
         <v>171</v>
       </c>
@@ -5457,19 +5475,19 @@
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -5483,8 +5501,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +5510,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -5507,7 +5525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -5521,7 +5539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -5535,7 +5553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -5549,8 +5567,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
@@ -5558,7 +5576,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -5572,7 +5590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -5586,7 +5604,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -5601,7 +5619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -5616,7 +5634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -5630,7 +5648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5645,7 +5663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -5660,7 +5678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5675,7 +5693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -5690,7 +5708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -5706,7 +5724,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -5721,7 +5739,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -5737,7 +5755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -5752,7 +5770,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5768,7 +5786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -5783,7 +5801,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -5799,7 +5817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -5814,7 +5832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -5830,7 +5848,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -5845,7 +5863,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5861,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -5874,7 +5892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5890,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -5903,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -5919,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -5932,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -5947,7 +5965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -5977,7 +5995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -5992,7 +6010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -6007,7 +6025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -6037,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -6052,7 +6070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -6067,7 +6085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -6097,7 +6115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -6112,7 +6130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -6127,7 +6145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -6142,7 +6160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -6157,7 +6175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -6172,7 +6190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -6187,7 +6205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -6202,7 +6220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -6217,7 +6235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -6232,7 +6250,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -6247,7 +6265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -6277,7 +6295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -6292,7 +6310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -6322,7 +6340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -6337,7 +6355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -6352,7 +6370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -6367,7 +6385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -6382,7 +6400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -6397,7 +6415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -6421,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -6433,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -6457,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -6469,7 +6487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
@@ -6480,7 +6498,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D3"/>
@@ -6501,15 +6519,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3984375" customWidth="1"/>
+    <col min="2" max="2" width="23.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
         <v>168</v>
       </c>
@@ -6517,19 +6535,19 @@
       <c r="C1" s="52"/>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="52"/>
       <c r="B3" s="52"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
@@ -6543,8 +6561,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
@@ -6552,7 +6570,7 @@
       <c r="C6" s="53"/>
       <c r="D6" s="53"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -6567,7 +6585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -6581,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -6595,7 +6613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>78</v>
       </c>
@@ -6609,10 +6627,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="53" t="s">
         <v>1</v>
       </c>
@@ -6620,7 +6638,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -6634,7 +6652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -6648,7 +6666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -6663,7 +6681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -6678,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>83</v>
       </c>
@@ -6692,7 +6710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -6707,7 +6725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>86</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -6737,7 +6755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>87</v>
       </c>
@@ -6752,7 +6770,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -6768,7 +6786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -6781,7 +6799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -6797,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>90</v>
       </c>
@@ -6810,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -6826,7 +6844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -6839,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>96</v>
       </c>
@@ -6855,7 +6873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -6868,7 +6886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>137</v>
       </c>
@@ -6884,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>93</v>
       </c>
@@ -6897,7 +6915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -6926,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -6942,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>141</v>
       </c>
@@ -6955,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -6971,7 +6989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>142</v>
       </c>
@@ -6984,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -6999,7 +7017,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -7014,7 +7032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -7027,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>100</v>
       </c>
@@ -7040,7 +7058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>101</v>
       </c>
@@ -7053,7 +7071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -7079,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>104</v>
       </c>
@@ -7092,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -7105,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>106</v>
       </c>
@@ -7118,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -7131,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>108</v>
       </c>
@@ -7144,7 +7162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -7157,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>110</v>
       </c>
@@ -7170,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>111</v>
       </c>
@@ -7183,7 +7201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -7196,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -7209,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -7222,7 +7240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -7235,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>116</v>
       </c>
@@ -7248,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>117</v>
       </c>
@@ -7261,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>118</v>
       </c>
@@ -7274,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>119</v>
       </c>
@@ -7287,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>120</v>
       </c>
@@ -7300,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>121</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -7326,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -7339,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -7352,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -7378,7 +7396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>127</v>
       </c>
@@ -7391,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -7404,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>148</v>
       </c>
@@ -7417,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -7430,7 +7448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>152</v>
       </c>
@@ -7443,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>154</v>
       </c>
@@ -7456,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -7469,7 +7487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:4" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D3"/>
@@ -7497,27 +7515,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" customWidth="1"/>
     <col min="4" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.59765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="57.1328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.265625" customWidth="1"/>
+    <col min="11" max="11" width="18.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="92.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="52" t="s">
         <v>208</v>
       </c>
@@ -7535,7 +7553,7 @@
       <c r="M1" s="52"/>
       <c r="N1" s="52"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="38" t="s">
         <v>188</v>
       </c>
@@ -7562,7 +7580,7 @@
       <c r="N2" s="56"/>
       <c r="O2" s="45"/>
     </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="39"/>
       <c r="B3" s="21" t="s">
         <v>195</v>
@@ -7593,7 +7611,7 @@
       <c r="N3" s="43"/>
       <c r="O3" s="47"/>
     </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="23" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="40"/>
       <c r="B4" s="34"/>
       <c r="C4" s="34"/>
@@ -7610,7 +7628,7 @@
       <c r="N4" s="44"/>
       <c r="O4" s="47"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
         <v>190</v>
       </c>
@@ -7654,7 +7672,7 @@
       </c>
       <c r="O5" s="45"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
         <v>191</v>
       </c>
@@ -7699,7 +7717,7 @@
       </c>
       <c r="O6" s="45"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="41"/>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
@@ -7713,7 +7731,7 @@
       <c r="N7" s="45"/>
       <c r="O7" s="45"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="41" t="s">
         <v>192</v>
       </c>
@@ -7757,7 +7775,7 @@
       </c>
       <c r="O8" s="45"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="41" t="s">
         <v>193</v>
       </c>
@@ -7802,7 +7820,7 @@
       </c>
       <c r="O9" s="45"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="42"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
@@ -7816,7 +7834,7 @@
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="42"/>
       <c r="H11" s="27"/>
       <c r="I11" s="31"/>
@@ -7836,7 +7854,7 @@
       </c>
       <c r="O11" s="45"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="42"/>
       <c r="H12" s="27"/>
       <c r="I12" s="31"/>
@@ -7854,7 +7872,7 @@
       </c>
       <c r="O12" s="45"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="42"/>
       <c r="H13" s="27"/>
       <c r="I13" s="31"/>
@@ -7872,7 +7890,7 @@
       </c>
       <c r="O13" s="45"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A14" s="42"/>
       <c r="H14" s="27"/>
       <c r="I14" s="31"/>
@@ -7880,7 +7898,7 @@
       <c r="N14" s="45"/>
       <c r="O14" s="45"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A15" s="42"/>
       <c r="H15" s="27"/>
       <c r="I15" s="31"/>
@@ -7900,7 +7918,7 @@
       </c>
       <c r="O15" s="45"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="42"/>
       <c r="H16" s="27"/>
       <c r="I16" s="31"/>
@@ -7918,7 +7936,7 @@
       </c>
       <c r="O16" s="45"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="42"/>
       <c r="H17" s="27"/>
       <c r="I17" s="31"/>
@@ -7926,7 +7944,7 @@
       <c r="N17" s="45"/>
       <c r="O17" s="45"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="42"/>
       <c r="H18" s="27"/>
       <c r="I18" s="31"/>
@@ -7945,7 +7963,7 @@
       </c>
       <c r="O18" s="45"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="42"/>
       <c r="B19" s="37"/>
       <c r="I19" s="31"/>
@@ -7963,7 +7981,7 @@
       </c>
       <c r="O19" s="45"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="42"/>
       <c r="B20" s="37"/>
       <c r="C20" s="45"/>
@@ -7980,7 +7998,7 @@
       <c r="N20" s="45"/>
       <c r="O20" s="45"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="46"/>
       <c r="B21" s="45"/>
       <c r="C21" s="45"/>
@@ -8020,45 +8038,45 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.1328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.86328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.59765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.86328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="3.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.86328125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="7" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.73046875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="3.265625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="57" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="38" max="57" width="4.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>131</v>
       </c>
@@ -8231,7 +8249,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
